--- a/medicine/Psychotrope/Privat-Brauerei_Strate_Detmold/Privat-Brauerei_Strate_Detmold.xlsx
+++ b/medicine/Psychotrope/Privat-Brauerei_Strate_Detmold/Privat-Brauerei_Strate_Detmold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Privat-Brauerei Strate Detmold est une brasserie à Detmold, dans le Land de Rhénanie-du-Nord-Westphalie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en 1853 par Adolf Hüppe. Pour permettre l'expansion de la brasserie, Hüppe quitte le centre-ville et s'installe sur un terrain qu'il acquiert, où il creuse des caves dans la roche puis construit en 1863 la nouvelle brasserie sur les combles. L'entreprise est la possession de la cinquième génération.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Detmolder Pilsener
 Detmolder Landbier
